--- a/web_scraping/transferable.xlsx
+++ b/web_scraping/transferable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanys_mac/Documents/My-Projects/Project-Classy/classy/web_scraping/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanys_mac/Documents/Projects/Project-Classy/classy/web_scraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C4FF2-8639-1E48-B40C-0AA1BC081A09}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B44FA5-9909-4E44-BD93-2E630D8D69CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="460" windowWidth="11440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="23780" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Final" sheetId="4" r:id="rId1"/>
@@ -9910,8 +9910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67:M67"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141:F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -9961,10 +9961,10 @@
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>254</v>
+        <v>714</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>255</v>
+        <v>715</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -9973,22 +9973,33 @@
         <v>256</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>257</v>
+        <v>716</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>258</v>
+        <v>717</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>259</v>
+        <v>347</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -9997,10 +10008,10 @@
         <v>256</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>262</v>
+        <v>350</v>
       </c>
       <c r="G3" s="2">
         <v>3</v>
@@ -10009,10 +10020,10 @@
         <v>263</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="K3" s="1">
         <v>1</v>
@@ -10020,10 +10031,10 @@
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>266</v>
+        <v>637</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>267</v>
+        <v>638</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -10032,33 +10043,22 @@
         <v>256</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>268</v>
+        <v>639</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="G4" s="2">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>
@@ -10067,22 +10067,33 @@
         <v>256</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>274</v>
+        <v>391</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>392</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -10091,10 +10102,10 @@
         <v>256</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>273</v>
+        <v>393</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>265</v>
+        <v>394</v>
       </c>
       <c r="G6" s="2">
         <v>4</v>
@@ -10103,10 +10114,10 @@
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>276</v>
+        <v>489</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>277</v>
+        <v>490</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
@@ -10115,10 +10126,10 @@
         <v>256</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>278</v>
+        <v>393</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>279</v>
+        <v>394</v>
       </c>
       <c r="G7" s="2">
         <v>4</v>
@@ -10127,10 +10138,10 @@
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>280</v>
+        <v>537</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>281</v>
+        <v>538</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -10139,10 +10150,10 @@
         <v>256</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>282</v>
+        <v>393</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="G8" s="2">
         <v>4</v>
@@ -10151,82 +10162,104 @@
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>284</v>
+        <v>609</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>610</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>264</v>
+        <v>393</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>265</v>
+        <v>394</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>287</v>
+        <v>633</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>286</v>
+        <v>634</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>264</v>
+        <v>635</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>265</v>
+        <v>636</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>288</v>
+        <v>752</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>286</v>
+        <v>753</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>257</v>
+        <v>635</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>290</v>
+        <v>636</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>291</v>
+        <v>754</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>292</v>
+        <v>753</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -10235,10 +10268,10 @@
         <v>256</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>293</v>
+        <v>635</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>294</v>
+        <v>636</v>
       </c>
       <c r="G12" s="2">
         <v>3</v>
@@ -10247,10 +10280,10 @@
         <v>263</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>295</v>
+        <v>449</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="K12" s="1">
         <v>1</v>
@@ -10258,34 +10291,45 @@
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>296</v>
+        <v>755</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>286</v>
+        <v>753</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>298</v>
+        <v>635</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>265</v>
+        <v>636</v>
       </c>
       <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>299</v>
+        <v>756</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>300</v>
+        <v>753</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -10294,10 +10338,10 @@
         <v>256</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>301</v>
+        <v>635</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>302</v>
+        <v>636</v>
       </c>
       <c r="G14" s="2">
         <v>3</v>
@@ -10306,10 +10350,10 @@
         <v>263</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>303</v>
+        <v>449</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
@@ -10317,10 +10361,10 @@
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>305</v>
+        <v>757</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>306</v>
+        <v>753</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -10329,22 +10373,33 @@
         <v>256</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>307</v>
+        <v>635</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2">
         <v>5</v>
@@ -10353,33 +10408,22 @@
         <v>256</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="G16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
@@ -10388,10 +10432,10 @@
         <v>256</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="G17" s="2">
         <v>4</v>
@@ -10400,10 +10444,10 @@
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>316</v>
+        <v>642</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>317</v>
+        <v>643</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -10412,10 +10456,10 @@
         <v>256</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>318</v>
+        <v>644</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>319</v>
+        <v>645</v>
       </c>
       <c r="G18" s="2">
         <v>3</v>
@@ -10424,10 +10468,10 @@
         <v>263</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K18" s="1">
         <v>1</v>
@@ -10435,22 +10479,22 @@
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C19" s="2">
-        <v>5</v>
+        <v>138</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G19" s="2">
         <v>3</v>
@@ -10459,10 +10503,10 @@
         <v>263</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K19" s="1">
         <v>1</v>
@@ -10470,10 +10514,10 @@
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>321</v>
+        <v>674</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>675</v>
       </c>
       <c r="C20" s="2">
         <v>5</v>
@@ -10482,10 +10526,10 @@
         <v>256</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>322</v>
+        <v>676</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>323</v>
+        <v>677</v>
       </c>
       <c r="G20" s="2">
         <v>3</v>
@@ -10494,10 +10538,10 @@
         <v>263</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K20" s="1">
         <v>1</v>
@@ -10505,22 +10549,22 @@
     </row>
     <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>286</v>
+        <v>368</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="G21" s="2">
         <v>3</v>
@@ -10540,10 +10584,10 @@
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>327</v>
+        <v>780</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C22" s="2">
         <v>5</v>
@@ -10552,22 +10596,33 @@
         <v>256</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="C23" s="2">
         <v>5</v>
@@ -10576,33 +10631,22 @@
         <v>256</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="G23" s="2">
-        <v>3</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
@@ -10611,22 +10655,33 @@
         <v>256</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="G24" s="2">
-        <v>4</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="C25" s="2">
         <v>5</v>
@@ -10635,10 +10690,10 @@
         <v>256</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
@@ -10647,10 +10702,10 @@
         <v>263</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -10658,10 +10713,10 @@
     </row>
     <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>340</v>
+        <v>625</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>626</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -10670,10 +10725,10 @@
         <v>256</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>341</v>
+        <v>627</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>342</v>
+        <v>628</v>
       </c>
       <c r="G26" s="2">
         <v>3</v>
@@ -10682,10 +10737,10 @@
         <v>263</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="K26" s="1">
         <v>1</v>
@@ -10693,10 +10748,10 @@
     </row>
     <row r="27" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2">
         <v>5</v>
@@ -10705,10 +10760,10 @@
         <v>256</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="G27" s="2">
         <v>3</v>
@@ -10717,10 +10772,10 @@
         <v>263</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="K27" s="1">
         <v>1</v>
@@ -10728,10 +10783,10 @@
     </row>
     <row r="28" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>415</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -10740,10 +10795,10 @@
         <v>256</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="G28" s="2">
         <v>3</v>
@@ -10752,10 +10807,10 @@
         <v>263</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>344</v>
+        <v>279</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -10763,10 +10818,10 @@
     </row>
     <row r="29" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>347</v>
+        <v>418</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="C29" s="2">
         <v>5</v>
@@ -10775,10 +10830,10 @@
         <v>256</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="G29" s="2">
         <v>3</v>
@@ -10787,10 +10842,10 @@
         <v>263</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>351</v>
+        <v>295</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -10798,10 +10853,10 @@
     </row>
     <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -10810,22 +10865,33 @@
         <v>256</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G30" s="2">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G30" s="2">
-        <v>4</v>
-      </c>
-      <c r="I30" s="2"/>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C31" s="2">
         <v>5</v>
@@ -10834,10 +10900,10 @@
         <v>256</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>358</v>
+        <v>279</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -10846,10 +10912,10 @@
     </row>
     <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>359</v>
+        <v>576</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>360</v>
+        <v>577</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
@@ -10858,10 +10924,10 @@
         <v>256</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -10870,10 +10936,10 @@
     </row>
     <row r="33" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
@@ -10882,10 +10948,10 @@
         <v>256</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="G33" s="2">
         <v>3</v>
@@ -10894,10 +10960,10 @@
         <v>263</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="K33" s="1">
         <v>1</v>
@@ -10905,10 +10971,10 @@
     </row>
     <row r="34" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="C34" s="2">
         <v>5</v>
@@ -10917,10 +10983,10 @@
         <v>256</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="G34" s="2">
         <v>3</v>
@@ -10929,10 +10995,10 @@
         <v>263</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>282</v>
+        <v>343</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="K34" s="1">
         <v>1</v>
@@ -10940,10 +11006,10 @@
     </row>
     <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="C35" s="2">
         <v>5</v>
@@ -10952,10 +11018,10 @@
         <v>256</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="G35" s="2">
         <v>3</v>
@@ -10964,10 +11030,10 @@
         <v>263</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="K35" s="1">
         <v>1</v>
@@ -10975,10 +11041,10 @@
     </row>
     <row r="36" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
@@ -10987,10 +11053,10 @@
         <v>256</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -10999,10 +11065,10 @@
         <v>263</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -11010,10 +11076,10 @@
     </row>
     <row r="37" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>381</v>
+        <v>145</v>
       </c>
       <c r="C37" s="2">
         <v>5</v>
@@ -11022,10 +11088,10 @@
         <v>256</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -11034,7 +11100,7 @@
         <v>263</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>344</v>
@@ -11045,10 +11111,10 @@
     </row>
     <row r="38" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>381</v>
+        <v>145</v>
       </c>
       <c r="C38" s="2">
         <v>5</v>
@@ -11057,22 +11123,33 @@
         <v>256</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
@@ -11081,22 +11158,22 @@
         <v>256</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
@@ -11104,10 +11181,10 @@
     </row>
     <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -11116,22 +11193,22 @@
         <v>256</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
@@ -11139,10 +11216,10 @@
     </row>
     <row r="41" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>391</v>
+        <v>671</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>392</v>
+        <v>672</v>
       </c>
       <c r="C41" s="2">
         <v>5</v>
@@ -11151,22 +11228,33 @@
         <v>256</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G41" s="2">
-        <v>4</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>395</v>
+        <v>673</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>396</v>
+        <v>672</v>
       </c>
       <c r="C42" s="2">
         <v>5</v>
@@ -11187,21 +11275,21 @@
         <v>263</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="K42" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>401</v>
+        <v>748</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>396</v>
+        <v>749</v>
       </c>
       <c r="C43" s="2">
         <v>5</v>
@@ -11233,10 +11321,10 @@
     </row>
     <row r="44" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>402</v>
+        <v>750</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>403</v>
+        <v>749</v>
       </c>
       <c r="C44" s="2">
         <v>5</v>
@@ -11245,20 +11333,33 @@
         <v>256</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="I44" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>406</v>
+        <v>751</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>407</v>
+        <v>749</v>
       </c>
       <c r="C45" s="2">
         <v>5</v>
@@ -11267,22 +11368,22 @@
         <v>256</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G45" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
@@ -11290,10 +11391,10 @@
     </row>
     <row r="46" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>410</v>
+        <v>619</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>407</v>
+        <v>620</v>
       </c>
       <c r="C46" s="2">
         <v>5</v>
@@ -11302,33 +11403,22 @@
         <v>256</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="G46" s="2">
-        <v>3</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>411</v>
+        <v>621</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>412</v>
+        <v>620</v>
       </c>
       <c r="C47" s="2">
         <v>5</v>
@@ -11337,10 +11427,10 @@
         <v>256</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="G47" s="2">
         <v>4</v>
@@ -11349,10 +11439,10 @@
     </row>
     <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>414</v>
+        <v>622</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>415</v>
+        <v>620</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
@@ -11361,33 +11451,22 @@
         <v>256</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="G48" s="2">
-        <v>3</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>418</v>
+        <v>667</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>415</v>
+        <v>668</v>
       </c>
       <c r="C49" s="2">
         <v>5</v>
@@ -11396,10 +11475,10 @@
         <v>256</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>416</v>
+        <v>669</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>417</v>
+        <v>670</v>
       </c>
       <c r="G49" s="2">
         <v>3</v>
@@ -11408,10 +11487,10 @@
         <v>263</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>295</v>
+        <v>617</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>279</v>
+        <v>482</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -11419,10 +11498,10 @@
     </row>
     <row r="50" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>419</v>
+        <v>613</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>420</v>
+        <v>614</v>
       </c>
       <c r="C50" s="2">
         <v>5</v>
@@ -11431,57 +11510,68 @@
         <v>256</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>421</v>
+        <v>615</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>422</v>
+        <v>616</v>
       </c>
       <c r="G50" s="2">
         <v>3</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K50" s="1">
+        <v>617</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K50" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>423</v>
+        <v>618</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>286</v>
+        <v>614</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>264</v>
+        <v>615</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>265</v>
+        <v>616</v>
       </c>
       <c r="G51" s="2">
-        <v>2</v>
-      </c>
-      <c r="I51" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>425</v>
+        <v>526</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
@@ -11490,33 +11580,22 @@
         <v>256</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>427</v>
+        <v>527</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="G52" s="2">
-        <v>3</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2">
         <v>5</v>
@@ -11525,33 +11604,33 @@
         <v>256</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>432</v>
+        <v>104</v>
       </c>
       <c r="G53" s="2">
         <v>3</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K53" s="1">
+        <v>481</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K53" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>437</v>
+        <v>528</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
@@ -11560,10 +11639,10 @@
         <v>256</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>438</v>
+        <v>529</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>439</v>
+        <v>530</v>
       </c>
       <c r="G54" s="2">
         <v>3</v>
@@ -11572,10 +11651,10 @@
         <v>263</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
@@ -11583,10 +11662,10 @@
     </row>
     <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>442</v>
+        <v>585</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>443</v>
+        <v>110</v>
       </c>
       <c r="C55" s="2">
         <v>5</v>
@@ -11595,22 +11674,33 @@
         <v>256</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>257</v>
+        <v>586</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>290</v>
+        <v>587</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
@@ -11619,10 +11709,10 @@
         <v>256</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="G56" s="2">
         <v>3</v>
@@ -11631,10 +11721,10 @@
         <v>263</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>375</v>
+        <v>481</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>379</v>
+        <v>482</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
@@ -11642,10 +11732,10 @@
     </row>
     <row r="57" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>448</v>
+        <v>254</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="C57" s="2">
         <v>5</v>
@@ -11654,46 +11744,46 @@
         <v>256</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>449</v>
+        <v>257</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="G57" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>450</v>
+        <v>288</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C58" s="2">
-        <v>5</v>
+        <v>289</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>452</v>
+        <v>257</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="G58" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>454</v>
+        <v>381</v>
       </c>
       <c r="C59" s="2">
         <v>5</v>
@@ -11702,36 +11792,25 @@
         <v>256</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>456</v>
+        <v>290</v>
       </c>
       <c r="G59" s="2">
-        <v>3</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K59" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>286</v>
+        <v>443</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>256</v>
@@ -11749,38 +11828,27 @@
     </row>
     <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C61" s="2">
-        <v>5</v>
+        <v>460</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>463</v>
+        <v>257</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>464</v>
+        <v>290</v>
       </c>
       <c r="G61" s="2">
-        <v>3</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
@@ -11808,34 +11876,34 @@
     </row>
     <row r="63" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C63" s="2">
-        <v>5</v>
+        <v>474</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="G63" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>469</v>
+        <v>511</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2">
         <v>5</v>
@@ -11844,22 +11912,22 @@
         <v>256</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>471</v>
+        <v>257</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="G64" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>512</v>
       </c>
       <c r="C65" s="2">
         <v>5</v>
@@ -11868,25 +11936,25 @@
         <v>256</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>449</v>
+        <v>257</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="G65" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>286</v>
+        <v>550</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>256</v>
@@ -11895,19 +11963,19 @@
         <v>257</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="G66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>54</v>
+        <v>552</v>
       </c>
       <c r="C67" s="2">
         <v>5</v>
@@ -11916,401 +11984,313 @@
         <v>256</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>476</v>
+        <v>257</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C74" s="2">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="2">
         <v>4</v>
       </c>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="C68" s="2">
-        <v>5</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G68" s="2">
-        <v>3</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C69" s="2">
-        <v>5</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G69" s="2">
-        <v>3</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70" s="2">
-        <v>5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G70" s="2">
-        <v>3</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="C71" s="2">
-        <v>5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="G71" s="2">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C77" s="2">
+        <v>5</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" s="2">
         <v>4</v>
       </c>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="2">
-        <v>5</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G72" s="2">
-        <v>4</v>
-      </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="2">
-        <v>5</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="G73" s="2">
-        <v>4</v>
-      </c>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="2">
-        <v>5</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G74" s="2">
-        <v>3</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="2">
-        <v>5</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G75" s="2">
-        <v>3</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G76" s="2">
-        <v>3</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C77" s="2">
-        <v>5</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="G77" s="2">
-        <v>3</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K77" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C78" s="2">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>502</v>
+        <v>449</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>104</v>
+        <v>308</v>
       </c>
       <c r="G78" s="2">
-        <v>3</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C79" s="2">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>311</v>
+        <v>449</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G79" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>505</v>
+        <v>541</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>286</v>
+        <v>542</v>
+      </c>
+      <c r="C80" s="2">
+        <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>256</v>
@@ -12322,19 +12302,19 @@
         <v>308</v>
       </c>
       <c r="G80" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>286</v>
+        <v>569</v>
+      </c>
+      <c r="C81" s="2">
+        <v>5</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>256</v>
@@ -12346,16 +12326,16 @@
         <v>308</v>
       </c>
       <c r="G81" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>507</v>
+        <v>305</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>508</v>
+        <v>306</v>
       </c>
       <c r="C82" s="2">
         <v>5</v>
@@ -12364,33 +12344,22 @@
         <v>256</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>509</v>
+        <v>307</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>510</v>
+        <v>308</v>
       </c>
       <c r="G82" s="2">
-        <v>3</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I82" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K82" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>511</v>
+        <v>336</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="C83" s="2">
         <v>5</v>
@@ -12399,22 +12368,33 @@
         <v>256</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
-      </c>
-      <c r="I83" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>513</v>
+        <v>461</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2">
         <v>5</v>
@@ -12423,22 +12403,33 @@
         <v>256</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>257</v>
+        <v>463</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>258</v>
+        <v>464</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
-      </c>
-      <c r="I84" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>514</v>
+        <v>661</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>512</v>
+        <v>662</v>
       </c>
       <c r="C85" s="2">
         <v>5</v>
@@ -12447,22 +12438,33 @@
         <v>256</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>357</v>
+        <v>663</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>358</v>
+        <v>664</v>
       </c>
       <c r="G85" s="2">
-        <v>2</v>
-      </c>
-      <c r="I85" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>515</v>
+        <v>299</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>512</v>
+        <v>300</v>
       </c>
       <c r="C86" s="2">
         <v>5</v>
@@ -12471,21 +12473,33 @@
         <v>256</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="G86" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>516</v>
+        <v>272</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>517</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2">
         <v>5</v>
@@ -12494,33 +12508,22 @@
         <v>256</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>518</v>
+        <v>273</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>519</v>
+        <v>265</v>
       </c>
       <c r="G87" s="2">
-        <v>3</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I87" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="K87" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>520</v>
+        <v>274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>521</v>
+        <v>275</v>
       </c>
       <c r="C88" s="2">
         <v>5</v>
@@ -12529,33 +12532,22 @@
         <v>256</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>522</v>
+        <v>273</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>523</v>
+        <v>265</v>
       </c>
       <c r="G88" s="2">
-        <v>3</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K88" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="C89" s="2">
         <v>5</v>
@@ -12564,33 +12556,22 @@
         <v>256</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>522</v>
+        <v>273</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>523</v>
+        <v>265</v>
       </c>
       <c r="G89" s="2">
-        <v>3</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I89" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K89" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>526</v>
+        <v>629</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>46</v>
+        <v>630</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
@@ -12599,22 +12580,22 @@
         <v>256</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>527</v>
+        <v>273</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>482</v>
+        <v>265</v>
       </c>
       <c r="G90" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>528</v>
+        <v>631</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>632</v>
       </c>
       <c r="C91" s="2">
         <v>5</v>
@@ -12623,33 +12604,22 @@
         <v>256</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>529</v>
+        <v>273</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>530</v>
+        <v>265</v>
       </c>
       <c r="G91" s="2">
-        <v>3</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="K91" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>531</v>
+        <v>764</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>532</v>
+        <v>765</v>
       </c>
       <c r="C92" s="2">
         <v>5</v>
@@ -12664,75 +12634,64 @@
         <v>265</v>
       </c>
       <c r="G92" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>533</v>
+        <v>284</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C93" s="2">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>535</v>
+        <v>264</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>536</v>
+        <v>265</v>
       </c>
       <c r="G93" s="2">
-        <v>3</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K93" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>537</v>
+        <v>287</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C94" s="2">
-        <v>5</v>
+        <v>285</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>394</v>
+        <v>265</v>
       </c>
       <c r="G94" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>539</v>
+        <v>334</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>540</v>
+        <v>335</v>
       </c>
       <c r="C95" s="2">
         <v>5</v>
@@ -12741,10 +12700,10 @@
         <v>256</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="G95" s="2">
         <v>4</v>
@@ -12753,34 +12712,34 @@
     </row>
     <row r="96" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>541</v>
+        <v>423</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C96" s="2">
-        <v>5</v>
+        <v>424</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>449</v>
+        <v>264</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="G96" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>543</v>
+        <v>491</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>542</v>
+        <v>82</v>
       </c>
       <c r="C97" s="2">
         <v>5</v>
@@ -12789,33 +12748,22 @@
         <v>256</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G97" s="2">
-        <v>3</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>544</v>
+        <v>623</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>545</v>
+        <v>624</v>
       </c>
       <c r="C98" s="2">
         <v>5</v>
@@ -12824,22 +12772,22 @@
         <v>256</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="G98" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>546</v>
+        <v>760</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>545</v>
+        <v>761</v>
       </c>
       <c r="C99" s="2">
         <v>5</v>
@@ -12848,46 +12796,46 @@
         <v>256</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="G99" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>547</v>
+        <v>762</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C100" s="2">
-        <v>5</v>
+        <v>763</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>404</v>
+        <v>264</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>405</v>
+        <v>265</v>
       </c>
       <c r="G100" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>549</v>
+        <v>794</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>550</v>
+        <v>795</v>
       </c>
       <c r="C101" s="2">
         <v>5</v>
@@ -12896,46 +12844,46 @@
         <v>256</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>551</v>
+        <v>296</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C102" s="2">
-        <v>5</v>
+        <v>297</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>553</v>
+        <v>469</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>554</v>
+        <v>470</v>
       </c>
       <c r="C103" s="2">
         <v>5</v>
@@ -12944,22 +12892,22 @@
         <v>256</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>458</v>
+        <v>312</v>
       </c>
       <c r="G103" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>555</v>
+        <v>695</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>16</v>
+        <v>696</v>
       </c>
       <c r="C104" s="2">
         <v>5</v>
@@ -12968,33 +12916,33 @@
         <v>256</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>556</v>
+        <v>697</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>557</v>
+        <v>698</v>
       </c>
       <c r="G104" s="2">
         <v>3</v>
       </c>
-      <c r="H104" s="3" t="s">
+      <c r="H104" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K104" s="2">
+        <v>361</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K104" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>559</v>
+        <v>651</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="C105" s="2">
         <v>5</v>
@@ -13003,10 +12951,10 @@
         <v>256</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>556</v>
+        <v>653</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>557</v>
+        <v>654</v>
       </c>
       <c r="G105" s="2">
         <v>3</v>
@@ -13015,10 +12963,10 @@
         <v>263</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>558</v>
+        <v>361</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K105" s="1">
         <v>1</v>
@@ -13026,10 +12974,10 @@
     </row>
     <row r="106" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>16</v>
+        <v>652</v>
       </c>
       <c r="C106" s="2">
         <v>5</v>
@@ -13038,10 +12986,10 @@
         <v>256</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>556</v>
+        <v>653</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>557</v>
+        <v>654</v>
       </c>
       <c r="G106" s="2">
         <v>3</v>
@@ -13050,10 +12998,10 @@
         <v>263</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>558</v>
+        <v>361</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K106" s="1">
         <v>1</v>
@@ -13061,10 +13009,10 @@
     </row>
     <row r="107" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>561</v>
+        <v>359</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="C107" s="2">
         <v>5</v>
@@ -13073,33 +13021,22 @@
         <v>256</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>556</v>
+        <v>361</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>557</v>
+        <v>312</v>
       </c>
       <c r="G107" s="2">
-        <v>3</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K107" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>562</v>
+        <v>487</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>563</v>
+        <v>226</v>
       </c>
       <c r="C108" s="2">
         <v>5</v>
@@ -13108,10 +13045,10 @@
         <v>256</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>523</v>
+        <v>226</v>
       </c>
       <c r="G108" s="2">
         <v>3</v>
@@ -13120,10 +13057,10 @@
         <v>263</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>375</v>
+        <v>311</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="K108" s="1">
         <v>1</v>
@@ -13131,10 +13068,10 @@
     </row>
     <row r="109" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>564</v>
+        <v>790</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>565</v>
+        <v>791</v>
       </c>
       <c r="C109" s="2">
         <v>5</v>
@@ -13143,10 +13080,10 @@
         <v>256</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>566</v>
+        <v>792</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>567</v>
+        <v>793</v>
       </c>
       <c r="G109" s="2">
         <v>3</v>
@@ -13155,10 +13092,10 @@
         <v>263</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>379</v>
+        <v>312</v>
       </c>
       <c r="K109" s="1">
         <v>1</v>
@@ -13166,10 +13103,10 @@
     </row>
     <row r="110" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
       <c r="C110" s="2">
         <v>5</v>
@@ -13178,22 +13115,33 @@
         <v>256</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>449</v>
+        <v>535</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>308</v>
+        <v>536</v>
       </c>
       <c r="G110" s="2">
-        <v>4</v>
-      </c>
-      <c r="I110" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>570</v>
+        <v>309</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>571</v>
+        <v>211</v>
       </c>
       <c r="C111" s="2">
         <v>5</v>
@@ -13202,10 +13150,10 @@
         <v>256</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>572</v>
+        <v>310</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>573</v>
+        <v>211</v>
       </c>
       <c r="G111" s="2">
         <v>3</v>
@@ -13214,10 +13162,10 @@
         <v>263</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="K111" s="1">
         <v>1</v>
@@ -13225,34 +13173,34 @@
     </row>
     <row r="112" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>574</v>
+        <v>503</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>286</v>
+        <v>504</v>
+      </c>
+      <c r="C112" s="2">
+        <v>5</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>576</v>
+        <v>656</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>577</v>
+        <v>657</v>
       </c>
       <c r="C113" s="2">
         <v>5</v>
@@ -13261,10 +13209,10 @@
         <v>256</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="G113" s="2">
         <v>4</v>
@@ -13273,10 +13221,10 @@
     </row>
     <row r="114" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>578</v>
+        <v>411</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>143</v>
+        <v>412</v>
       </c>
       <c r="C114" s="2">
         <v>5</v>
@@ -13285,33 +13233,22 @@
         <v>256</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>579</v>
+        <v>413</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>580</v>
+        <v>312</v>
       </c>
       <c r="G114" s="2">
-        <v>3</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K114" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>581</v>
+        <v>738</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="C115" s="2">
         <v>5</v>
@@ -13320,33 +13257,33 @@
         <v>256</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>579</v>
+        <v>739</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>580</v>
+        <v>441</v>
       </c>
       <c r="G115" s="2">
         <v>3</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K115" s="1">
+        <v>449</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K115" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>582</v>
+        <v>740</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="C116" s="2">
         <v>5</v>
@@ -13355,33 +13292,33 @@
         <v>256</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>583</v>
+        <v>739</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>584</v>
+        <v>441</v>
       </c>
       <c r="G116" s="2">
         <v>3</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="H116" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K116" s="1">
+        <v>449</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K116" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>585</v>
+        <v>685</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="C117" s="2">
         <v>5</v>
@@ -13390,10 +13327,10 @@
         <v>256</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>586</v>
+        <v>687</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>587</v>
+        <v>688</v>
       </c>
       <c r="G117" s="2">
         <v>3</v>
@@ -13402,10 +13339,10 @@
         <v>263</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>481</v>
+        <v>680</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="K117" s="2">
         <v>1</v>
@@ -13413,10 +13350,10 @@
     </row>
     <row r="118" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>588</v>
+        <v>718</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>589</v>
+        <v>719</v>
       </c>
       <c r="C118" s="2">
         <v>5</v>
@@ -13425,33 +13362,33 @@
         <v>256</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>590</v>
+        <v>720</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>591</v>
+        <v>721</v>
       </c>
       <c r="G118" s="2">
         <v>3</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H118" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K118" s="1">
+        <v>680</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K118" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>593</v>
+        <v>722</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>594</v>
+        <v>135</v>
       </c>
       <c r="C119" s="2">
         <v>5</v>
@@ -13460,10 +13397,10 @@
         <v>256</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>590</v>
+        <v>720</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>591</v>
+        <v>721</v>
       </c>
       <c r="G119" s="2">
         <v>3</v>
@@ -13472,10 +13409,10 @@
         <v>263</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="K119" s="1">
         <v>1</v>
@@ -13483,10 +13420,10 @@
     </row>
     <row r="120" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>595</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>594</v>
+        <v>135</v>
       </c>
       <c r="C120" s="2">
         <v>5</v>
@@ -13495,10 +13432,10 @@
         <v>256</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>590</v>
+        <v>720</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>591</v>
+        <v>721</v>
       </c>
       <c r="G120" s="2">
         <v>3</v>
@@ -13507,10 +13444,10 @@
         <v>263</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="K120" s="1">
         <v>1</v>
@@ -13518,10 +13455,10 @@
     </row>
     <row r="121" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>596</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>594</v>
+        <v>135</v>
       </c>
       <c r="C121" s="2">
         <v>5</v>
@@ -13530,10 +13467,10 @@
         <v>256</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>590</v>
+        <v>720</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>591</v>
+        <v>721</v>
       </c>
       <c r="G121" s="2">
         <v>3</v>
@@ -13542,10 +13479,10 @@
         <v>263</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="K121" s="1">
         <v>1</v>
@@ -13553,10 +13490,10 @@
     </row>
     <row r="122" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>597</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>598</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2">
         <v>5</v>
@@ -13565,10 +13502,10 @@
         <v>256</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>599</v>
+        <v>720</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>600</v>
+        <v>721</v>
       </c>
       <c r="G122" s="2">
         <v>3</v>
@@ -13577,10 +13514,10 @@
         <v>263</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>404</v>
+        <v>680</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="K122" s="1">
         <v>1</v>
@@ -13588,10 +13525,10 @@
     </row>
     <row r="123" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>601</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>602</v>
+        <v>135</v>
       </c>
       <c r="C123" s="2">
         <v>5</v>
@@ -13600,22 +13537,33 @@
         <v>256</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>603</v>
+        <v>720</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>405</v>
+        <v>721</v>
       </c>
       <c r="G123" s="2">
-        <v>2</v>
-      </c>
-      <c r="I123" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K123" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>604</v>
+        <v>727</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2">
         <v>5</v>
@@ -13624,22 +13572,33 @@
         <v>256</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>257</v>
+        <v>720</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>290</v>
+        <v>721</v>
       </c>
       <c r="G124" s="2">
-        <v>0</v>
-      </c>
-      <c r="I124" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>605</v>
+        <v>728</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>606</v>
+        <v>135</v>
       </c>
       <c r="C125" s="2">
         <v>5</v>
@@ -13648,10 +13607,10 @@
         <v>256</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>607</v>
+        <v>720</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>608</v>
+        <v>721</v>
       </c>
       <c r="G125" s="2">
         <v>3</v>
@@ -13660,10 +13619,10 @@
         <v>263</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>375</v>
+        <v>680</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>379</v>
+        <v>441</v>
       </c>
       <c r="K125" s="1">
         <v>1</v>
@@ -13671,10 +13630,10 @@
     </row>
     <row r="126" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>609</v>
+        <v>729</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>610</v>
+        <v>135</v>
       </c>
       <c r="C126" s="2">
         <v>5</v>
@@ -13683,22 +13642,33 @@
         <v>256</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>393</v>
+        <v>720</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>394</v>
+        <v>721</v>
       </c>
       <c r="G126" s="2">
-        <v>4</v>
-      </c>
-      <c r="I126" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K126" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>611</v>
+        <v>730</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>612</v>
+        <v>135</v>
       </c>
       <c r="C127" s="2">
         <v>5</v>
@@ -13707,22 +13677,33 @@
         <v>256</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>314</v>
+        <v>720</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>315</v>
+        <v>721</v>
       </c>
       <c r="G127" s="2">
-        <v>4</v>
-      </c>
-      <c r="I127" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K127" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>613</v>
+        <v>731</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>614</v>
+        <v>135</v>
       </c>
       <c r="C128" s="2">
         <v>5</v>
@@ -13731,33 +13712,33 @@
         <v>256</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>616</v>
+        <v>721</v>
       </c>
       <c r="G128" s="2">
         <v>3</v>
       </c>
-      <c r="H128" s="3" t="s">
+      <c r="H128" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K128" s="2">
+        <v>680</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K128" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>618</v>
+        <v>732</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>614</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2">
         <v>5</v>
@@ -13766,33 +13747,33 @@
         <v>256</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>615</v>
+        <v>720</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>616</v>
+        <v>721</v>
       </c>
       <c r="G129" s="2">
         <v>3</v>
       </c>
-      <c r="H129" s="3" t="s">
+      <c r="H129" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="K129" s="2">
+        <v>680</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K129" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>619</v>
+        <v>733</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>620</v>
+        <v>135</v>
       </c>
       <c r="C130" s="2">
         <v>5</v>
@@ -13801,22 +13782,33 @@
         <v>256</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>343</v>
+        <v>720</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>344</v>
+        <v>721</v>
       </c>
       <c r="G130" s="2">
-        <v>4</v>
-      </c>
-      <c r="I130" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K130" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>621</v>
+        <v>678</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>620</v>
+        <v>679</v>
       </c>
       <c r="C131" s="2">
         <v>5</v>
@@ -13825,22 +13817,22 @@
         <v>256</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>343</v>
+        <v>680</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>344</v>
+        <v>441</v>
       </c>
       <c r="G131" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>622</v>
+        <v>741</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>620</v>
+        <v>26</v>
       </c>
       <c r="C132" s="2">
         <v>5</v>
@@ -13849,10 +13841,10 @@
         <v>256</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>343</v>
+        <v>680</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>344</v>
+        <v>441</v>
       </c>
       <c r="G132" s="2">
         <v>4</v>
@@ -13861,10 +13853,10 @@
     </row>
     <row r="133" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>623</v>
+        <v>742</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>624</v>
+        <v>743</v>
       </c>
       <c r="C133" s="2">
         <v>5</v>
@@ -13873,22 +13865,22 @@
         <v>256</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>264</v>
+        <v>680</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>265</v>
+        <v>441</v>
       </c>
       <c r="G133" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>625</v>
+        <v>437</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>626</v>
+        <v>31</v>
       </c>
       <c r="C134" s="2">
         <v>5</v>
@@ -13897,10 +13889,10 @@
         <v>256</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>627</v>
+        <v>438</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>628</v>
+        <v>439</v>
       </c>
       <c r="G134" s="2">
         <v>3</v>
@@ -13909,10 +13901,10 @@
         <v>263</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>295</v>
+        <v>440</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>279</v>
+        <v>441</v>
       </c>
       <c r="K134" s="1">
         <v>1</v>
@@ -13920,10 +13912,10 @@
     </row>
     <row r="135" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>629</v>
+        <v>691</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>630</v>
+        <v>692</v>
       </c>
       <c r="C135" s="2">
         <v>5</v>
@@ -13932,22 +13924,22 @@
         <v>256</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>273</v>
+        <v>440</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>265</v>
+        <v>441</v>
       </c>
       <c r="G135" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>631</v>
+        <v>453</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>632</v>
+        <v>454</v>
       </c>
       <c r="C136" s="2">
         <v>5</v>
@@ -13956,22 +13948,33 @@
         <v>256</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>265</v>
+        <v>456</v>
       </c>
       <c r="G136" s="2">
-        <v>1</v>
-      </c>
-      <c r="I136" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K136" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>633</v>
+        <v>259</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>634</v>
+        <v>260</v>
       </c>
       <c r="C137" s="2">
         <v>5</v>
@@ -13980,10 +13983,10 @@
         <v>256</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>635</v>
+        <v>261</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>636</v>
+        <v>262</v>
       </c>
       <c r="G137" s="2">
         <v>3</v>
@@ -13992,10 +13995,10 @@
         <v>263</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>449</v>
+        <v>264</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="K137" s="1">
         <v>1</v>
@@ -14003,10 +14006,10 @@
     </row>
     <row r="138" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>637</v>
+        <v>543</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="C138" s="2">
         <v>5</v>
@@ -14015,22 +14018,33 @@
         <v>256</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>639</v>
+        <v>261</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="G138" s="2">
-        <v>2</v>
-      </c>
-      <c r="I138" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K138" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>640</v>
+        <v>553</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>641</v>
+        <v>554</v>
       </c>
       <c r="C139" s="2">
         <v>5</v>
@@ -14039,33 +14053,22 @@
         <v>256</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>522</v>
+        <v>457</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="G139" s="2">
-        <v>3</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K139" s="1">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>642</v>
+        <v>570</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>643</v>
+        <v>571</v>
       </c>
       <c r="C140" s="2">
         <v>5</v>
@@ -14074,10 +14077,10 @@
         <v>256</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>644</v>
+        <v>572</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>645</v>
+        <v>573</v>
       </c>
       <c r="G140" s="2">
         <v>3</v>
@@ -14086,10 +14089,10 @@
         <v>263</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="K140" s="1">
         <v>1</v>
@@ -14097,10 +14100,10 @@
     </row>
     <row r="141" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>646</v>
+        <v>419</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>647</v>
+        <v>420</v>
       </c>
       <c r="C141" s="2">
         <v>5</v>
@@ -14109,10 +14112,10 @@
         <v>256</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>648</v>
+        <v>421</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>647</v>
+        <v>422</v>
       </c>
       <c r="G141" s="2">
         <v>3</v>
@@ -14121,10 +14124,10 @@
         <v>263</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="K141" s="1">
         <v>1</v>
@@ -14132,10 +14135,10 @@
     </row>
     <row r="142" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>649</v>
+        <v>758</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="C142" s="2">
         <v>5</v>
@@ -14144,22 +14147,33 @@
         <v>256</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>315</v>
+        <v>422</v>
       </c>
       <c r="G142" s="2">
-        <v>4</v>
-      </c>
-      <c r="I142" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="K142" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>651</v>
+        <v>605</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
       <c r="C143" s="2">
         <v>5</v>
@@ -14168,10 +14182,10 @@
         <v>256</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>653</v>
+        <v>607</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>654</v>
+        <v>608</v>
       </c>
       <c r="G143" s="2">
         <v>3</v>
@@ -14180,10 +14194,10 @@
         <v>263</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="K143" s="1">
         <v>1</v>
@@ -14191,10 +14205,10 @@
     </row>
     <row r="144" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>655</v>
+        <v>371</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>652</v>
+        <v>372</v>
       </c>
       <c r="C144" s="2">
         <v>5</v>
@@ -14203,10 +14217,10 @@
         <v>256</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>653</v>
+        <v>373</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>654</v>
+        <v>374</v>
       </c>
       <c r="G144" s="2">
         <v>3</v>
@@ -14215,10 +14229,10 @@
         <v>263</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
       <c r="K144" s="1">
         <v>1</v>
@@ -14226,10 +14240,10 @@
     </row>
     <row r="145" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>656</v>
+        <v>377</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>657</v>
+        <v>378</v>
       </c>
       <c r="C145" s="2">
         <v>5</v>
@@ -14238,22 +14252,33 @@
         <v>256</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>311</v>
+        <v>373</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="G145" s="2">
-        <v>4</v>
-      </c>
-      <c r="I145" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K145" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>658</v>
+        <v>776</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>659</v>
+        <v>777</v>
       </c>
       <c r="C146" s="2">
         <v>5</v>
@@ -14262,22 +14287,33 @@
         <v>256</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>452</v>
+        <v>778</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>315</v>
+        <v>779</v>
       </c>
       <c r="G146" s="2">
-        <v>4</v>
-      </c>
-      <c r="I146" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K146" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>660</v>
+        <v>444</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>53</v>
+        <v>445</v>
       </c>
       <c r="C147" s="2">
         <v>5</v>
@@ -14286,22 +14322,33 @@
         <v>256</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>315</v>
+        <v>447</v>
       </c>
       <c r="G147" s="2">
-        <v>4</v>
-      </c>
-      <c r="I147" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K147" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>661</v>
+        <v>520</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>662</v>
+        <v>521</v>
       </c>
       <c r="C148" s="2">
         <v>5</v>
@@ -14310,10 +14357,10 @@
         <v>256</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>663</v>
+        <v>522</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>664</v>
+        <v>523</v>
       </c>
       <c r="G148" s="2">
         <v>3</v>
@@ -14322,10 +14369,10 @@
         <v>263</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>303</v>
+        <v>375</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="K148" s="1">
         <v>1</v>
@@ -14333,10 +14380,10 @@
     </row>
     <row r="149" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>665</v>
+        <v>524</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>666</v>
+        <v>525</v>
       </c>
       <c r="C149" s="2">
         <v>5</v>
@@ -14345,22 +14392,33 @@
         <v>256</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>257</v>
+        <v>522</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>290</v>
+        <v>523</v>
       </c>
       <c r="G149" s="2">
-        <v>0</v>
-      </c>
-      <c r="I149" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K149" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>667</v>
+        <v>562</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>668</v>
+        <v>563</v>
       </c>
       <c r="C150" s="2">
         <v>5</v>
@@ -14369,10 +14427,10 @@
         <v>256</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>669</v>
+        <v>522</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>670</v>
+        <v>523</v>
       </c>
       <c r="G150" s="2">
         <v>3</v>
@@ -14381,10 +14439,10 @@
         <v>263</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>617</v>
+        <v>375</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>482</v>
+        <v>379</v>
       </c>
       <c r="K150" s="1">
         <v>1</v>
@@ -14392,10 +14450,10 @@
     </row>
     <row r="151" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="C151" s="2">
         <v>5</v>
@@ -14404,33 +14462,33 @@
         <v>256</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>397</v>
+        <v>522</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="G151" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="K151" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
       <c r="C152" s="2">
         <v>5</v>
@@ -14439,33 +14497,33 @@
         <v>256</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>397</v>
+        <v>522</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="G152" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="K152" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>674</v>
+        <v>425</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>675</v>
+        <v>426</v>
       </c>
       <c r="C153" s="2">
         <v>5</v>
@@ -14474,10 +14532,10 @@
         <v>256</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>676</v>
+        <v>427</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>677</v>
+        <v>428</v>
       </c>
       <c r="G153" s="2">
         <v>3</v>
@@ -14486,10 +14544,10 @@
         <v>263</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>282</v>
+        <v>375</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="K153" s="1">
         <v>1</v>
@@ -14497,10 +14555,10 @@
     </row>
     <row r="154" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>678</v>
+        <v>564</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>679</v>
+        <v>565</v>
       </c>
       <c r="C154" s="2">
         <v>5</v>
@@ -14509,22 +14567,33 @@
         <v>256</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>680</v>
+        <v>566</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>441</v>
+        <v>567</v>
       </c>
       <c r="G154" s="2">
-        <v>2</v>
-      </c>
-      <c r="I154" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="K154" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>681</v>
+        <v>362</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>682</v>
+        <v>360</v>
       </c>
       <c r="C155" s="2">
         <v>5</v>
@@ -14533,22 +14602,33 @@
         <v>256</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>404</v>
+        <v>363</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>405</v>
+        <v>364</v>
       </c>
       <c r="G155" s="2">
-        <v>2</v>
-      </c>
-      <c r="I155" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="K155" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>683</v>
+        <v>578</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>682</v>
+        <v>143</v>
       </c>
       <c r="C156" s="2">
         <v>5</v>
@@ -14557,22 +14637,33 @@
         <v>256</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G156" s="2">
+        <v>3</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I156" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="J156" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G156" s="2">
-        <v>2</v>
-      </c>
-      <c r="I156" s="2"/>
+      <c r="K156" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>684</v>
+        <v>581</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>682</v>
+        <v>143</v>
       </c>
       <c r="C157" s="2">
         <v>5</v>
@@ -14581,22 +14672,33 @@
         <v>256</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G157" s="2">
+        <v>3</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I157" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="J157" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="G157" s="2">
-        <v>2</v>
-      </c>
-      <c r="I157" s="2"/>
+      <c r="K157" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>685</v>
+        <v>402</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>686</v>
+        <v>403</v>
       </c>
       <c r="C158" s="2">
         <v>5</v>
@@ -14605,33 +14707,20 @@
         <v>256</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>687</v>
+        <v>404</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="G158" s="2">
-        <v>3</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="K158" s="2">
-        <v>1</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>689</v>
+        <v>492</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>690</v>
+        <v>165</v>
       </c>
       <c r="C159" s="2">
         <v>5</v>
@@ -14640,33 +14729,22 @@
         <v>256</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>522</v>
+        <v>404</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>523</v>
+        <v>405</v>
       </c>
       <c r="G159" s="2">
-        <v>3</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J159" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K159" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>691</v>
+        <v>539</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>692</v>
+        <v>540</v>
       </c>
       <c r="C160" s="2">
         <v>5</v>
@@ -14675,10 +14753,10 @@
         <v>256</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="G160" s="2">
         <v>4</v>
@@ -14687,10 +14765,10 @@
     </row>
     <row r="161" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>693</v>
+        <v>544</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>694</v>
+        <v>545</v>
       </c>
       <c r="C161" s="2">
         <v>5</v>
@@ -14699,22 +14777,22 @@
         <v>256</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>405</v>
       </c>
       <c r="G161" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>695</v>
+        <v>546</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>696</v>
+        <v>545</v>
       </c>
       <c r="C162" s="2">
         <v>5</v>
@@ -14723,33 +14801,22 @@
         <v>256</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>697</v>
+        <v>404</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>698</v>
+        <v>405</v>
       </c>
       <c r="G162" s="2">
-        <v>3</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I162" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K162" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>699</v>
+        <v>547</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>48</v>
+        <v>548</v>
       </c>
       <c r="C163" s="2">
         <v>5</v>
@@ -14758,33 +14825,22 @@
         <v>256</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>556</v>
+        <v>404</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>557</v>
+        <v>405</v>
       </c>
       <c r="G163" s="2">
-        <v>3</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I163" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K163" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I163" s="2"/>
     </row>
     <row r="164" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>700</v>
+        <v>681</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>701</v>
+        <v>682</v>
       </c>
       <c r="C164" s="2">
         <v>5</v>
@@ -14799,16 +14855,16 @@
         <v>405</v>
       </c>
       <c r="G164" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>702</v>
+        <v>683</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="C165" s="2">
         <v>5</v>
@@ -14817,22 +14873,22 @@
         <v>256</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="G165" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I165" s="2"/>
     </row>
     <row r="166" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="C166" s="2">
         <v>5</v>
@@ -14841,33 +14897,22 @@
         <v>256</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>706</v>
+        <v>404</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>707</v>
+        <v>405</v>
       </c>
       <c r="G166" s="2">
-        <v>3</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K166" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I166" s="2"/>
     </row>
     <row r="167" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="C167" s="2">
         <v>5</v>
@@ -14876,33 +14921,22 @@
         <v>256</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>710</v>
+        <v>404</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>711</v>
+        <v>405</v>
       </c>
       <c r="G167" s="2">
-        <v>3</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I167" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K167" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I167" s="2"/>
     </row>
     <row r="168" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>712</v>
+        <v>582</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>713</v>
+        <v>167</v>
       </c>
       <c r="C168" s="2">
         <v>5</v>
@@ -14911,22 +14945,33 @@
         <v>256</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>357</v>
+        <v>583</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>358</v>
+        <v>584</v>
       </c>
       <c r="G168" s="2">
-        <v>2</v>
-      </c>
-      <c r="I168" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K168" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="169" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>714</v>
+        <v>597</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>715</v>
+        <v>598</v>
       </c>
       <c r="C169" s="2">
         <v>5</v>
@@ -14935,10 +14980,10 @@
         <v>256</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>716</v>
+        <v>599</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>717</v>
+        <v>600</v>
       </c>
       <c r="G169" s="2">
         <v>3</v>
@@ -14947,10 +14992,10 @@
         <v>263</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="K169" s="1">
         <v>1</v>
@@ -14958,10 +15003,10 @@
     </row>
     <row r="170" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>719</v>
+        <v>166</v>
       </c>
       <c r="C170" s="2">
         <v>5</v>
@@ -14970,33 +15015,33 @@
         <v>256</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>721</v>
+        <v>770</v>
       </c>
       <c r="G170" s="2">
         <v>3</v>
       </c>
-      <c r="H170" s="3" t="s">
+      <c r="H170" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="K170" s="2">
+        <v>404</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="K170" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>722</v>
+        <v>771</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C171" s="2">
         <v>5</v>
@@ -15005,10 +15050,10 @@
         <v>256</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>721</v>
+        <v>770</v>
       </c>
       <c r="G171" s="2">
         <v>3</v>
@@ -15017,10 +15062,10 @@
         <v>263</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>680</v>
+        <v>404</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K171" s="1">
         <v>1</v>
@@ -15028,10 +15073,10 @@
     </row>
     <row r="172" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>723</v>
+        <v>406</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="C172" s="2">
         <v>5</v>
@@ -15040,10 +15085,10 @@
         <v>256</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>720</v>
+        <v>408</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>721</v>
+        <v>409</v>
       </c>
       <c r="G172" s="2">
         <v>3</v>
@@ -15052,10 +15097,10 @@
         <v>263</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>680</v>
+        <v>404</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K172" s="1">
         <v>1</v>
@@ -15063,10 +15108,10 @@
     </row>
     <row r="173" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>724</v>
+        <v>410</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="C173" s="2">
         <v>5</v>
@@ -15075,10 +15120,10 @@
         <v>256</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>720</v>
+        <v>408</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>721</v>
+        <v>409</v>
       </c>
       <c r="G173" s="2">
         <v>3</v>
@@ -15087,10 +15132,10 @@
         <v>263</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>680</v>
+        <v>404</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K173" s="1">
         <v>1</v>
@@ -15098,10 +15143,10 @@
     </row>
     <row r="174" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>725</v>
+        <v>601</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>135</v>
+        <v>602</v>
       </c>
       <c r="C174" s="2">
         <v>5</v>
@@ -15110,33 +15155,22 @@
         <v>256</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>720</v>
+        <v>603</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>721</v>
+        <v>405</v>
       </c>
       <c r="G174" s="2">
-        <v>3</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I174" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K174" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I174" s="2"/>
     </row>
     <row r="175" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>135</v>
+        <v>694</v>
       </c>
       <c r="C175" s="2">
         <v>5</v>
@@ -15145,33 +15179,22 @@
         <v>256</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>720</v>
+        <v>603</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>721</v>
+        <v>405</v>
       </c>
       <c r="G175" s="2">
-        <v>3</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I175" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K175" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I175" s="2"/>
     </row>
     <row r="176" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>727</v>
+        <v>744</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>135</v>
+        <v>745</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -15180,33 +15203,22 @@
         <v>256</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>720</v>
+        <v>603</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>721</v>
+        <v>405</v>
       </c>
       <c r="G176" s="2">
-        <v>3</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I176" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="K176" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I176" s="2"/>
     </row>
     <row r="177" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>135</v>
+        <v>784</v>
       </c>
       <c r="C177" s="2">
         <v>5</v>
@@ -15215,10 +15227,10 @@
         <v>256</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>720</v>
+        <v>785</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>721</v>
+        <v>786</v>
       </c>
       <c r="G177" s="2">
         <v>3</v>
@@ -15227,10 +15239,10 @@
         <v>263</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>680</v>
+        <v>787</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="K177" s="1">
         <v>1</v>
@@ -15238,10 +15250,10 @@
     </row>
     <row r="178" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>135</v>
+        <v>735</v>
       </c>
       <c r="C178" s="2">
         <v>5</v>
@@ -15250,10 +15262,10 @@
         <v>256</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="G178" s="2">
         <v>3</v>
@@ -15262,10 +15274,10 @@
         <v>263</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>680</v>
+        <v>307</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="K178" s="1">
         <v>1</v>
@@ -15273,10 +15285,10 @@
     </row>
     <row r="179" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>135</v>
+        <v>647</v>
       </c>
       <c r="C179" s="2">
         <v>5</v>
@@ -15285,10 +15297,10 @@
         <v>256</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>720</v>
+        <v>648</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>721</v>
+        <v>647</v>
       </c>
       <c r="G179" s="2">
         <v>3</v>
@@ -15297,10 +15309,10 @@
         <v>263</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>680</v>
+        <v>332</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="K179" s="1">
         <v>1</v>
@@ -15308,10 +15320,10 @@
     </row>
     <row r="180" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>731</v>
+        <v>483</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>135</v>
+        <v>484</v>
       </c>
       <c r="C180" s="2">
         <v>5</v>
@@ -15320,10 +15332,10 @@
         <v>256</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>720</v>
+        <v>485</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>721</v>
+        <v>486</v>
       </c>
       <c r="G180" s="2">
         <v>3</v>
@@ -15332,10 +15344,10 @@
         <v>263</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>680</v>
+        <v>332</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="K180" s="1">
         <v>1</v>
@@ -15343,10 +15355,10 @@
     </row>
     <row r="181" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>732</v>
+        <v>516</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>135</v>
+        <v>517</v>
       </c>
       <c r="C181" s="2">
         <v>5</v>
@@ -15355,10 +15367,10 @@
         <v>256</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>720</v>
+        <v>518</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>721</v>
+        <v>519</v>
       </c>
       <c r="G181" s="2">
         <v>3</v>
@@ -15367,10 +15379,10 @@
         <v>263</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>680</v>
+        <v>332</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="K181" s="1">
         <v>1</v>
@@ -15378,10 +15390,10 @@
     </row>
     <row r="182" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>733</v>
+        <v>507</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>135</v>
+        <v>508</v>
       </c>
       <c r="C182" s="2">
         <v>5</v>
@@ -15390,10 +15402,10 @@
         <v>256</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>720</v>
+        <v>509</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>721</v>
+        <v>510</v>
       </c>
       <c r="G182" s="2">
         <v>3</v>
@@ -15402,10 +15414,10 @@
         <v>263</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>680</v>
+        <v>332</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="K182" s="1">
         <v>1</v>
@@ -15413,10 +15425,10 @@
     </row>
     <row r="183" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>734</v>
+        <v>429</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>735</v>
+        <v>430</v>
       </c>
       <c r="C183" s="2">
         <v>5</v>
@@ -15425,10 +15437,10 @@
         <v>256</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>736</v>
+        <v>431</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>737</v>
+        <v>432</v>
       </c>
       <c r="G183" s="2">
         <v>3</v>
@@ -15437,10 +15449,10 @@
         <v>263</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>307</v>
+        <v>433</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="K183" s="1">
         <v>1</v>
@@ -15448,10 +15460,10 @@
     </row>
     <row r="184" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>738</v>
+        <v>329</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>26</v>
+        <v>330</v>
       </c>
       <c r="C184" s="2">
         <v>5</v>
@@ -15460,33 +15472,33 @@
         <v>256</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>739</v>
+        <v>331</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="G184" s="2">
         <v>3</v>
       </c>
-      <c r="H184" s="3" t="s">
+      <c r="H184" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J184" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K184" s="2">
+        <v>332</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="K184" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>740</v>
+        <v>588</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>26</v>
+        <v>589</v>
       </c>
       <c r="C185" s="2">
         <v>5</v>
@@ -15495,33 +15507,33 @@
         <v>256</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>739</v>
+        <v>590</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="G185" s="2">
         <v>3</v>
       </c>
-      <c r="H185" s="3" t="s">
+      <c r="H185" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J185" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K185" s="2">
+        <v>592</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K185" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>741</v>
+        <v>593</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>26</v>
+        <v>594</v>
       </c>
       <c r="C186" s="2">
         <v>5</v>
@@ -15530,22 +15542,33 @@
         <v>256</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="G186" s="2">
-        <v>4</v>
-      </c>
-      <c r="I186" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K186" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>742</v>
+        <v>595</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>743</v>
+        <v>594</v>
       </c>
       <c r="C187" s="2">
         <v>5</v>
@@ -15554,22 +15577,33 @@
         <v>256</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>680</v>
+        <v>590</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>441</v>
+        <v>591</v>
       </c>
       <c r="G187" s="2">
-        <v>4</v>
-      </c>
-      <c r="I187" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K187" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="188" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>744</v>
+        <v>596</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>745</v>
+        <v>594</v>
       </c>
       <c r="C188" s="2">
         <v>5</v>
@@ -15578,22 +15612,33 @@
         <v>256</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>405</v>
+        <v>591</v>
       </c>
       <c r="G188" s="2">
-        <v>2</v>
-      </c>
-      <c r="I188" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K188" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="189" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>746</v>
+        <v>493</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>747</v>
+        <v>165</v>
       </c>
       <c r="C189" s="2">
         <v>5</v>
@@ -15602,22 +15647,33 @@
         <v>256</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>258</v>
+        <v>495</v>
       </c>
       <c r="G189" s="2">
-        <v>0</v>
-      </c>
-      <c r="I189" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K189" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="190" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>748</v>
+        <v>498</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>749</v>
+        <v>141</v>
       </c>
       <c r="C190" s="2">
         <v>5</v>
@@ -15626,22 +15682,22 @@
         <v>256</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="G190" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K190" s="1">
         <v>1</v>
@@ -15649,10 +15705,10 @@
     </row>
     <row r="191" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>750</v>
+        <v>499</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>749</v>
+        <v>141</v>
       </c>
       <c r="C191" s="2">
         <v>5</v>
@@ -15661,22 +15717,22 @@
         <v>256</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="G191" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K191" s="1">
         <v>1</v>
@@ -15684,10 +15740,10 @@
     </row>
     <row r="192" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>751</v>
+        <v>500</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>749</v>
+        <v>141</v>
       </c>
       <c r="C192" s="2">
         <v>5</v>
@@ -15696,22 +15752,22 @@
         <v>256</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>398</v>
+        <v>495</v>
       </c>
       <c r="G192" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="K192" s="1">
         <v>1</v>
@@ -15719,10 +15775,10 @@
     </row>
     <row r="193" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>752</v>
+        <v>555</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="C193" s="2">
         <v>5</v>
@@ -15731,33 +15787,33 @@
         <v>256</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="G193" s="2">
         <v>3</v>
       </c>
-      <c r="H193" s="1" t="s">
+      <c r="H193" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="K193" s="1">
+        <v>558</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K193" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>754</v>
+        <v>559</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="C194" s="2">
         <v>5</v>
@@ -15766,10 +15822,10 @@
         <v>256</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="G194" s="2">
         <v>3</v>
@@ -15778,10 +15834,10 @@
         <v>263</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>449</v>
+        <v>558</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K194" s="1">
         <v>1</v>
@@ -15789,10 +15845,10 @@
     </row>
     <row r="195" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>755</v>
+        <v>560</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="C195" s="2">
         <v>5</v>
@@ -15801,10 +15857,10 @@
         <v>256</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="G195" s="2">
         <v>3</v>
@@ -15813,10 +15869,10 @@
         <v>263</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>449</v>
+        <v>558</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K195" s="1">
         <v>1</v>
@@ -15824,10 +15880,10 @@
     </row>
     <row r="196" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>756</v>
+        <v>561</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>753</v>
+        <v>16</v>
       </c>
       <c r="C196" s="2">
         <v>5</v>
@@ -15836,10 +15892,10 @@
         <v>256</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="G196" s="2">
         <v>3</v>
@@ -15848,10 +15904,10 @@
         <v>263</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>449</v>
+        <v>558</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K196" s="1">
         <v>1</v>
@@ -15859,10 +15915,10 @@
     </row>
     <row r="197" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>757</v>
+        <v>699</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>753</v>
+        <v>48</v>
       </c>
       <c r="C197" s="2">
         <v>5</v>
@@ -15871,10 +15927,10 @@
         <v>256</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>635</v>
+        <v>556</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>636</v>
+        <v>557</v>
       </c>
       <c r="G197" s="2">
         <v>3</v>
@@ -15883,10 +15939,10 @@
         <v>263</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>449</v>
+        <v>558</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K197" s="1">
         <v>1</v>
@@ -15894,10 +15950,10 @@
     </row>
     <row r="198" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>758</v>
+        <v>355</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>759</v>
+        <v>356</v>
       </c>
       <c r="C198" s="2">
         <v>5</v>
@@ -15906,33 +15962,22 @@
         <v>256</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>421</v>
+        <v>357</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
       <c r="G198" s="2">
-        <v>3</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I198" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J198" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="K198" s="1">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>760</v>
+        <v>467</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>761</v>
+        <v>468</v>
       </c>
       <c r="C199" s="2">
         <v>5</v>
@@ -15941,10 +15986,10 @@
         <v>256</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="G199" s="2">
         <v>2</v>
@@ -15953,22 +15998,22 @@
     </row>
     <row r="200" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>762</v>
+        <v>514</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>286</v>
+        <v>512</v>
+      </c>
+      <c r="C200" s="2">
+        <v>5</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="G200" s="2">
         <v>2</v>
@@ -15977,10 +16022,10 @@
     </row>
     <row r="201" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>764</v>
+        <v>515</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>765</v>
+        <v>512</v>
       </c>
       <c r="C201" s="2">
         <v>5</v>
@@ -15989,22 +16034,21 @@
         <v>256</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>273</v>
+        <v>357</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>265</v>
+        <v>358</v>
       </c>
       <c r="G201" s="2">
-        <v>1</v>
-      </c>
-      <c r="I201" s="2"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="202" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>766</v>
+        <v>702</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>166</v>
+        <v>703</v>
       </c>
       <c r="C202" s="2">
         <v>5</v>
@@ -16013,22 +16057,22 @@
         <v>256</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="G202" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I202" s="2"/>
     </row>
     <row r="203" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>767</v>
+        <v>712</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>166</v>
+        <v>713</v>
       </c>
       <c r="C203" s="2">
         <v>5</v>
@@ -16037,22 +16081,22 @@
         <v>256</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>257</v>
+        <v>357</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="G203" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>166</v>
+        <v>789</v>
       </c>
       <c r="C204" s="2">
         <v>5</v>
@@ -16061,33 +16105,22 @@
         <v>256</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>769</v>
+        <v>357</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>770</v>
+        <v>358</v>
       </c>
       <c r="G204" s="2">
-        <v>3</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I204" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J204" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K204" s="1">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>166</v>
+        <v>705</v>
       </c>
       <c r="C205" s="2">
         <v>5</v>
@@ -16096,10 +16129,10 @@
         <v>256</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>769</v>
+        <v>706</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>770</v>
+        <v>707</v>
       </c>
       <c r="G205" s="2">
         <v>3</v>
@@ -16108,10 +16141,10 @@
         <v>263</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="K205" s="1">
         <v>1</v>
@@ -16119,10 +16152,10 @@
     </row>
     <row r="206" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>772</v>
+        <v>708</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>773</v>
+        <v>709</v>
       </c>
       <c r="C206" s="2">
         <v>5</v>
@@ -16131,22 +16164,33 @@
         <v>256</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>314</v>
+        <v>710</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>315</v>
+        <v>711</v>
       </c>
       <c r="G206" s="2">
-        <v>4</v>
-      </c>
-      <c r="I206" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K206" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="207" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>774</v>
+        <v>475</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>775</v>
+        <v>54</v>
       </c>
       <c r="C207" s="2">
         <v>5</v>
@@ -16155,22 +16199,22 @@
         <v>256</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>257</v>
+        <v>476</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="G207" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>776</v>
+        <v>660</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>777</v>
+        <v>53</v>
       </c>
       <c r="C208" s="2">
         <v>5</v>
@@ -16179,33 +16223,22 @@
         <v>256</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>778</v>
+        <v>476</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>779</v>
+        <v>315</v>
       </c>
       <c r="G208" s="2">
-        <v>3</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I208" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J208" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="K208" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="C209" s="2">
         <v>5</v>
@@ -16214,57 +16247,46 @@
         <v>256</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="G209" s="2">
-        <v>3</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="K209" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>781</v>
+        <v>658</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>286</v>
+        <v>659</v>
+      </c>
+      <c r="C210" s="2">
+        <v>5</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>256</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>257</v>
+        <v>452</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="G210" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I210" s="2"/>
     </row>
-    <row r="211" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>783</v>
+        <v>313</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>784</v>
+        <v>215</v>
       </c>
       <c r="C211" s="2">
         <v>5</v>
@@ -16273,33 +16295,22 @@
         <v>256</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>785</v>
+        <v>314</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>786</v>
+        <v>315</v>
       </c>
       <c r="G211" s="2">
-        <v>3</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I211" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="K211" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>788</v>
+        <v>611</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>789</v>
+        <v>612</v>
       </c>
       <c r="C212" s="2">
         <v>5</v>
@@ -16308,22 +16319,22 @@
         <v>256</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>358</v>
+        <v>315</v>
       </c>
       <c r="G212" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I212" s="2"/>
     </row>
-    <row r="213" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>790</v>
+        <v>649</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>791</v>
+        <v>650</v>
       </c>
       <c r="C213" s="2">
         <v>5</v>
@@ -16332,33 +16343,22 @@
         <v>256</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>792</v>
+        <v>314</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>793</v>
+        <v>315</v>
       </c>
       <c r="G213" s="2">
-        <v>3</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="J213" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="K213" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="C214" s="2">
         <v>5</v>
@@ -16367,17 +16367,17 @@
         <v>256</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="G214" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I214" s="2"/>
     </row>
-    <row r="215" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -16387,7 +16387,7 @@
       <c r="G215" s="2"/>
       <c r="I215" s="2"/>
     </row>
-    <row r="216" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -16397,7 +16397,7 @@
       <c r="G216" s="2"/>
       <c r="I216" s="2"/>
     </row>
-    <row r="217" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -16407,7 +16407,7 @@
       <c r="G217" s="2"/>
       <c r="I217" s="2"/>
     </row>
-    <row r="218" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -16417,7 +16417,7 @@
       <c r="G218" s="2"/>
       <c r="I218" s="2"/>
     </row>
-    <row r="219" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -16427,7 +16427,7 @@
       <c r="G219" s="2"/>
       <c r="I219" s="2"/>
     </row>
-    <row r="220" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -16437,7 +16437,7 @@
       <c r="G220" s="2"/>
       <c r="I220" s="2"/>
     </row>
-    <row r="221" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -16447,7 +16447,7 @@
       <c r="G221" s="2"/>
       <c r="I221" s="2"/>
     </row>
-    <row r="222" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -16457,7 +16457,7 @@
       <c r="G222" s="2"/>
       <c r="I222" s="2"/>
     </row>
-    <row r="223" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -16467,7 +16467,7 @@
       <c r="G223" s="2"/>
       <c r="I223" s="2"/>
     </row>
-    <row r="224" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -17746,8 +17746,8 @@
       <c r="I352" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K353">
-    <sortCondition ref="B133"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:K353">
+    <sortCondition ref="E132"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
